--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H2">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I2">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J2">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.13976306460805</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N2">
-        <v>1.13976306460805</v>
+        <v>3.442957</v>
       </c>
       <c r="O2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q2">
-        <v>1.609708659305079</v>
+        <v>1.685459814069111</v>
       </c>
       <c r="R2">
-        <v>1.609708659305079</v>
+        <v>15.169138326622</v>
       </c>
       <c r="S2">
-        <v>0.4209795505846304</v>
+        <v>0.2801810226380849</v>
       </c>
       <c r="T2">
-        <v>0.4209795505846304</v>
+        <v>0.280181022638085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H3">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I3">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J3">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.325944761433446</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N3">
-        <v>0.325944761433446</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q3">
-        <v>0.4603378730429167</v>
+        <v>0.3949610855931111</v>
       </c>
       <c r="R3">
-        <v>0.4603378730429167</v>
+        <v>3.554649770338</v>
       </c>
       <c r="S3">
-        <v>0.1203900033651762</v>
+        <v>0.06565603044344581</v>
       </c>
       <c r="T3">
-        <v>0.1203900033651762</v>
+        <v>0.06565603044344581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H4">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I4">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J4">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.397797892585466</v>
+        <v>0.377781</v>
       </c>
       <c r="N4">
-        <v>0.397797892585466</v>
+        <v>1.133343</v>
       </c>
       <c r="O4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="P4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="Q4">
-        <v>0.5618173919053437</v>
+        <v>0.554814969242</v>
       </c>
       <c r="R4">
-        <v>0.5618173919053437</v>
+        <v>4.993334723178</v>
       </c>
       <c r="S4">
-        <v>0.1469294656444509</v>
+        <v>0.0922292090025275</v>
       </c>
       <c r="T4">
-        <v>0.1469294656444509</v>
+        <v>0.09222920900252753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H5">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I5">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J5">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.572800788946198</v>
+        <v>0.4071873333333333</v>
       </c>
       <c r="N5">
-        <v>0.572800788946198</v>
+        <v>1.221562</v>
       </c>
       <c r="O5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776033</v>
       </c>
       <c r="P5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776032</v>
       </c>
       <c r="Q5">
-        <v>0.8089772503204907</v>
+        <v>0.5980015612724445</v>
       </c>
       <c r="R5">
-        <v>0.8089772503204907</v>
+        <v>5.382014051452001</v>
       </c>
       <c r="S5">
-        <v>0.2115680233838919</v>
+        <v>0.09940829652412864</v>
       </c>
       <c r="T5">
-        <v>0.2115680233838919</v>
+        <v>0.09940829652412865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.157156155590008</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H6">
-        <v>0.157156155590008</v>
+        <v>4.405846</v>
       </c>
       <c r="I6">
-        <v>0.1001329570218506</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J6">
-        <v>0.1001329570218506</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13976306460805</v>
+        <v>0.5855753333333333</v>
       </c>
       <c r="N6">
-        <v>1.13976306460805</v>
+        <v>1.756726</v>
       </c>
       <c r="O6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="P6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="Q6">
-        <v>0.1791207815172871</v>
+        <v>0.8599849133551112</v>
       </c>
       <c r="R6">
-        <v>0.1791207815172871</v>
+        <v>7.739864220196001</v>
       </c>
       <c r="S6">
-        <v>0.04684461729619357</v>
+        <v>0.1429588830690922</v>
       </c>
       <c r="T6">
-        <v>0.04684461729619357</v>
+        <v>0.1429588830690922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H7">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I7">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J7">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.325944761433446</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N7">
-        <v>0.325944761433446</v>
+        <v>3.442957</v>
       </c>
       <c r="O7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q7">
-        <v>0.05122422564158267</v>
+        <v>0.4669212041643333</v>
       </c>
       <c r="R7">
-        <v>0.05122422564158267</v>
+        <v>4.202290837479</v>
       </c>
       <c r="S7">
-        <v>0.01339643131381838</v>
+        <v>0.0776182614276229</v>
       </c>
       <c r="T7">
-        <v>0.01339643131381838</v>
+        <v>0.0776182614276229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H8">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I8">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J8">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.397797892585466</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N8">
-        <v>0.397797892585466</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q8">
-        <v>0.06251638750053878</v>
+        <v>0.1094156645823333</v>
       </c>
       <c r="R8">
-        <v>0.06251638750053878</v>
+        <v>0.984740981241</v>
       </c>
       <c r="S8">
-        <v>0.01634961740561992</v>
+        <v>0.01818862279563481</v>
       </c>
       <c r="T8">
-        <v>0.01634961740561992</v>
+        <v>0.01818862279563481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.406849</v>
+      </c>
+      <c r="H9">
+        <v>1.220547</v>
+      </c>
+      <c r="I9">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="J9">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.377781</v>
+      </c>
+      <c r="N9">
+        <v>1.133343</v>
+      </c>
+      <c r="O9">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P9">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q9">
+        <v>0.153699822069</v>
+      </c>
+      <c r="R9">
+        <v>1.383298398621</v>
+      </c>
+      <c r="S9">
+        <v>0.02555016320597859</v>
+      </c>
+      <c r="T9">
+        <v>0.02555016320597859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.406849</v>
+      </c>
+      <c r="H10">
+        <v>1.220547</v>
+      </c>
+      <c r="I10">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="J10">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.221562</v>
+      </c>
+      <c r="O10">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P10">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q10">
+        <v>0.1656637593793333</v>
+      </c>
+      <c r="R10">
+        <v>1.490973834414</v>
+      </c>
+      <c r="S10">
+        <v>0.02753897846126161</v>
+      </c>
+      <c r="T10">
+        <v>0.02753897846126161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.406849</v>
+      </c>
+      <c r="H11">
+        <v>1.220547</v>
+      </c>
+      <c r="I11">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="J11">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.756726</v>
+      </c>
+      <c r="O11">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P11">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q11">
+        <v>0.2382407387913333</v>
+      </c>
+      <c r="R11">
+        <v>2.144166649122</v>
+      </c>
+      <c r="S11">
+        <v>0.03960375279874314</v>
+      </c>
+      <c r="T11">
+        <v>0.03960375279874314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.363574</v>
+      </c>
+      <c r="I12">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J12">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.442957</v>
+      </c>
+      <c r="O12">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P12">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q12">
+        <v>0.1390855164797778</v>
+      </c>
+      <c r="R12">
+        <v>1.251769648318</v>
+      </c>
+      <c r="S12">
+        <v>0.02312076616491341</v>
+      </c>
+      <c r="T12">
+        <v>0.02312076616491341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.157156155590008</v>
-      </c>
-      <c r="H9">
-        <v>0.157156155590008</v>
-      </c>
-      <c r="I9">
-        <v>0.1001329570218506</v>
-      </c>
-      <c r="J9">
-        <v>0.1001329570218506</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="N9">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="O9">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="P9">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="Q9">
-        <v>0.09001916990970803</v>
-      </c>
-      <c r="R9">
-        <v>0.09001916990970803</v>
-      </c>
-      <c r="S9">
-        <v>0.02354229100621873</v>
-      </c>
-      <c r="T9">
-        <v>0.02354229100621873</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.363574</v>
+      </c>
+      <c r="I13">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J13">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P13">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q13">
+        <v>0.03259251043577778</v>
+      </c>
+      <c r="R13">
+        <v>0.293332593922</v>
+      </c>
+      <c r="S13">
+        <v>0.005417989101853621</v>
+      </c>
+      <c r="T13">
+        <v>0.005417989101853621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.363574</v>
+      </c>
+      <c r="I14">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J14">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.377781</v>
+      </c>
+      <c r="N14">
+        <v>1.133343</v>
+      </c>
+      <c r="O14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q14">
+        <v>0.045783783098</v>
+      </c>
+      <c r="R14">
+        <v>0.412054047882</v>
+      </c>
+      <c r="S14">
+        <v>0.007610829437498481</v>
+      </c>
+      <c r="T14">
+        <v>0.007610829437498483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.363574</v>
+      </c>
+      <c r="I15">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J15">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.221562</v>
+      </c>
+      <c r="O15">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P15">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q15">
+        <v>0.04934757584311111</v>
+      </c>
+      <c r="R15">
+        <v>0.444128182588</v>
+      </c>
+      <c r="S15">
+        <v>0.008203253586363106</v>
+      </c>
+      <c r="T15">
+        <v>0.008203253586363106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.363574</v>
+      </c>
+      <c r="I16">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J16">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.756726</v>
+      </c>
+      <c r="O16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q16">
+        <v>0.07096665541377778</v>
+      </c>
+      <c r="R16">
+        <v>0.638699898724</v>
+      </c>
+      <c r="S16">
+        <v>0.01179708345524608</v>
+      </c>
+      <c r="T16">
+        <v>0.01179708345524608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.161697</v>
+      </c>
+      <c r="H17">
+        <v>0.485091</v>
+      </c>
+      <c r="I17">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J17">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.442957</v>
+      </c>
+      <c r="O17">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P17">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q17">
+        <v>0.185571939343</v>
+      </c>
+      <c r="R17">
+        <v>1.670147454087</v>
+      </c>
+      <c r="S17">
+        <v>0.03084839834450211</v>
+      </c>
+      <c r="T17">
+        <v>0.03084839834450212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.161697</v>
+      </c>
+      <c r="H18">
+        <v>0.485091</v>
+      </c>
+      <c r="I18">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J18">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P18">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q18">
+        <v>0.043485874897</v>
+      </c>
+      <c r="R18">
+        <v>0.391372874073</v>
+      </c>
+      <c r="S18">
+        <v>0.00722883856218342</v>
+      </c>
+      <c r="T18">
+        <v>0.00722883856218342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.161697</v>
+      </c>
+      <c r="H19">
+        <v>0.485091</v>
+      </c>
+      <c r="I19">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J19">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.377781</v>
+      </c>
+      <c r="N19">
+        <v>1.133343</v>
+      </c>
+      <c r="O19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q19">
+        <v>0.061086054357</v>
+      </c>
+      <c r="R19">
+        <v>0.5497744892130001</v>
+      </c>
+      <c r="S19">
+        <v>0.01015458988449552</v>
+      </c>
+      <c r="T19">
+        <v>0.01015458988449553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.161697</v>
+      </c>
+      <c r="H20">
+        <v>0.485091</v>
+      </c>
+      <c r="I20">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J20">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.221562</v>
+      </c>
+      <c r="O20">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P20">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q20">
+        <v>0.06584097023800001</v>
+      </c>
+      <c r="R20">
+        <v>0.5925687321420001</v>
+      </c>
+      <c r="S20">
+        <v>0.01094501940584988</v>
+      </c>
+      <c r="T20">
+        <v>0.01094501940584989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.161697</v>
+      </c>
+      <c r="H21">
+        <v>0.485091</v>
+      </c>
+      <c r="I21">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J21">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.756726</v>
+      </c>
+      <c r="O21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q21">
+        <v>0.09468577467400001</v>
+      </c>
+      <c r="R21">
+        <v>0.852171972066</v>
+      </c>
+      <c r="S21">
+        <v>0.01574001169057407</v>
+      </c>
+      <c r="T21">
+        <v>0.01574001169057407</v>
       </c>
     </row>
   </sheetData>
